--- a/meta/en/3-3-2.xlsx
+++ b/meta/en/3-3-2.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -116,9 +115,6 @@
     <t>(0312) 32 46 52</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>The tuberculosis incidence per 100,000 population as defined as the estimated number of new and relapse TB cases (all forms of TB, including cases in people living with HIV) arising in a given year, expressed as a rate per 100 000 population.</t>
   </si>
   <si>
@@ -152,6 +148,9 @@
   <si>
     <t>Details on data sources and methodology available in the following publicly available document: https://arxiv.org/ftp/arxiv/papers/1603/1603.00278.pdf
 KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -560,7 +559,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +642,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -657,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -673,7 +672,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -695,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -709,7 +708,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -735,7 +734,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,7 +742,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,7 +750,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -759,7 +758,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
